--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail1 Features.xlsx
@@ -4795,7 +4795,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.428430548570446</v>
+        <v>1.431454660107504</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.137594984234427</v>
@@ -4884,7 +4884,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.476595880165568</v>
+        <v>1.473523088689815</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.958905812658922</v>
@@ -4973,7 +4973,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.489790935627875</v>
+        <v>1.483289254663542</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.113694474620243</v>
@@ -5062,7 +5062,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.468906626349379</v>
+        <v>1.464655668467882</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.122739968583867</v>
@@ -5151,7 +5151,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.456228532651262</v>
+        <v>1.45221940533804</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.172804390092779</v>
@@ -5240,7 +5240,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.467863007363676</v>
+        <v>1.463176305067658</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.099747261412817</v>
@@ -5329,7 +5329,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.452148927731181</v>
+        <v>1.448997492073588</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.134459215774013</v>
@@ -5418,7 +5418,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.445573013299942</v>
+        <v>1.441143290049824</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.122605078894353</v>
@@ -5507,7 +5507,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.441698075076685</v>
+        <v>1.436163033121955</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.985287133301427</v>
@@ -5596,7 +5596,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.466354441764912</v>
+        <v>1.462365805320495</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.02674971722566</v>
@@ -5685,7 +5685,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.479365232270957</v>
+        <v>1.462824230285467</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.919192879176908</v>
@@ -5774,7 +5774,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.434502342609846</v>
+        <v>1.432391956576259</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.917198832609686</v>
@@ -5863,7 +5863,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.427789802721224</v>
+        <v>1.426759597479936</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.895523248151503</v>
@@ -5952,7 +5952,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.418707888595568</v>
+        <v>1.421093789609003</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.855482626612693</v>
@@ -6041,7 +6041,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.451018449425299</v>
+        <v>1.454749372087575</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.852087977342557</v>
@@ -6130,7 +6130,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.468400153620006</v>
+        <v>1.471252786361127</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.855320355295853</v>
@@ -6219,7 +6219,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.470732031031731</v>
+        <v>1.473786550301196</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.845590611275522</v>
@@ -6308,7 +6308,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.489450780558847</v>
+        <v>1.4813192120562</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.683378701468372</v>
@@ -6397,7 +6397,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.447175644244133</v>
+        <v>1.45477513657145</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.843380229351283</v>
@@ -6486,7 +6486,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.424301908671592</v>
+        <v>1.431927987990323</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.858497521046612</v>
@@ -6575,7 +6575,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.413418941320871</v>
+        <v>1.422533797192671</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.834182955315071</v>
@@ -6664,7 +6664,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.399672076110122</v>
+        <v>1.406598902290775</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.864260664098383</v>
@@ -6753,7 +6753,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.363517172104847</v>
+        <v>1.368782131788214</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.88254281064506</v>
@@ -6842,7 +6842,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.364501821402122</v>
+        <v>1.376458989763292</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.890747907410637</v>
@@ -6931,7 +6931,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.326908331962924</v>
+        <v>1.338020892149598</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.922062040633555</v>
@@ -7020,7 +7020,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.328862041936409</v>
+        <v>1.343159911175847</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.925808842209135</v>
@@ -7109,7 +7109,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.360648472117122</v>
+        <v>1.357890605229507</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.657492330431043</v>
@@ -7198,7 +7198,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.256468297519179</v>
+        <v>1.264809522479193</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.665767687807484</v>
@@ -7287,7 +7287,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.2626271168304</v>
+        <v>1.270292833642201</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.665124403280603</v>
@@ -7376,7 +7376,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.249416133763115</v>
+        <v>1.252249871533633</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.658338126032654</v>
@@ -7465,7 +7465,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.240458284383603</v>
+        <v>1.244045936877745</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.678562739867896</v>
@@ -7554,7 +7554,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.242079169515197</v>
+        <v>1.246072148287888</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.679869123414873</v>
@@ -7643,7 +7643,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.241149829780188</v>
+        <v>1.243529346318676</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.706250899906252</v>
@@ -7732,7 +7732,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.221193854223672</v>
+        <v>1.223506229933129</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.694630568818048</v>
@@ -7821,7 +7821,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.237997946860023</v>
+        <v>1.241264924161134</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.681091962484248</v>
@@ -7910,7 +7910,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.241681016039041</v>
+        <v>1.244229038942426</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.667270549408193</v>
@@ -7999,7 +7999,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.24881924480605</v>
+        <v>1.255364950145488</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.646145957384073</v>
@@ -8088,7 +8088,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.257078993410078</v>
+        <v>1.26290525457366</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.659049889720464</v>
@@ -8177,7 +8177,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.258965217072398</v>
+        <v>1.262104428597789</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.689010498511872</v>
@@ -8266,7 +8266,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.269080853418548</v>
+        <v>1.270451806971101</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.652217518147877</v>
@@ -8355,7 +8355,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.266054278296004</v>
+        <v>1.259139887323045</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.654841638790654</v>
@@ -8444,7 +8444,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.293747244742184</v>
+        <v>1.297333225566468</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.632321356856369</v>
@@ -8730,7 +8730,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.367189859423105</v>
+        <v>1.383214023064052</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.081487655118244</v>
@@ -8819,7 +8819,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.415167858816111</v>
+        <v>1.433102623432453</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.084241120634971</v>
@@ -8908,7 +8908,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.402140085439334</v>
+        <v>1.414668171677853</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.244399332519871</v>
@@ -8997,7 +8997,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.378489744461783</v>
+        <v>1.390872495197614</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.177379443155433</v>
@@ -9086,7 +9086,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.374928206961426</v>
+        <v>1.390713982687077</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.171537606604003</v>
@@ -9175,7 +9175,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.396067416953295</v>
+        <v>1.410158114014288</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.160659679050911</v>
@@ -9264,7 +9264,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.383270789245804</v>
+        <v>1.397616254427018</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.230691102280407</v>
@@ -9353,7 +9353,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.390644182387052</v>
+        <v>1.403100480359951</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.229598508572678</v>
@@ -9442,7 +9442,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.387750994539982</v>
+        <v>1.39931365383667</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.069003211695469</v>
@@ -9531,7 +9531,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.408924626523756</v>
+        <v>1.419377879414685</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.231074498887476</v>
@@ -9620,7 +9620,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.40480529873562</v>
+        <v>1.417887313624112</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.21498377039197</v>
@@ -9709,7 +9709,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.403468914114504</v>
+        <v>1.410051913496544</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.0442147575898</v>
@@ -9798,7 +9798,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.419387914303528</v>
+        <v>1.428696551581204</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.049442966660763</v>
@@ -9887,7 +9887,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.419154800660079</v>
+        <v>1.427061225952275</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.12348932291707</v>
@@ -9976,7 +9976,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.441272801607648</v>
+        <v>1.446566688510721</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.205786277217906</v>
@@ -10065,7 +10065,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.451565598613549</v>
+        <v>1.456203210213961</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.333502112512093</v>
@@ -10154,7 +10154,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.453818297719025</v>
+        <v>1.45605986323484</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.240114584744175</v>
@@ -10243,7 +10243,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.459905466173016</v>
+        <v>1.452356332380629</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.165749862022903</v>
@@ -10332,7 +10332,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.442075583241473</v>
+        <v>1.441573791876335</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.413235739232918</v>
@@ -10421,7 +10421,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.438793850402202</v>
+        <v>1.440607252736923</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.389384208654995</v>
@@ -10510,7 +10510,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.440180058582715</v>
+        <v>1.441697441879003</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.385611285621836</v>
@@ -10599,7 +10599,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.436021561932808</v>
+        <v>1.430990566910364</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.391796402299842</v>
@@ -10688,7 +10688,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.401219390973981</v>
+        <v>1.397769505853206</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.288802487536694</v>
@@ -10777,7 +10777,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.413267250484718</v>
+        <v>1.414758553461886</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.331582685064868</v>
@@ -10866,7 +10866,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.388920214710922</v>
+        <v>1.390711327371914</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.253278618998125</v>
@@ -10955,7 +10955,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.396563189141945</v>
+        <v>1.399026495840766</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.336077305374396</v>
@@ -11044,7 +11044,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.415537306877562</v>
+        <v>1.421210987405713</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.138052463586676</v>
@@ -11133,7 +11133,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.409837935778698</v>
+        <v>1.412325654419722</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.156044150919462</v>
@@ -11222,7 +11222,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.410586685065331</v>
+        <v>1.413941115677687</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.088987951686216</v>
@@ -11311,7 +11311,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.399041930251829</v>
+        <v>1.400472441740572</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.061158140319012</v>
@@ -11400,7 +11400,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.391722738921127</v>
+        <v>1.395554967427682</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.129097597559563</v>
@@ -11489,7 +11489,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.390954915312647</v>
+        <v>1.39325889870791</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.152276655351665</v>
@@ -11578,7 +11578,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.387997242668894</v>
+        <v>1.389736862959219</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.301805767004585</v>
@@ -11667,7 +11667,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.359738042795427</v>
+        <v>1.366140017322255</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.080032637166858</v>
@@ -11756,7 +11756,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.37011049056413</v>
+        <v>1.374964124252901</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.098760652619231</v>
@@ -11845,7 +11845,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.36045249137245</v>
+        <v>1.364411532658368</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.159043828593238</v>
@@ -11934,7 +11934,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.379846990240387</v>
+        <v>1.390624560465746</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.997043263313733</v>
@@ -12023,7 +12023,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.385220390339836</v>
+        <v>1.394578944875196</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.07915803964982</v>
@@ -12112,7 +12112,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.382081558901469</v>
+        <v>1.388525757148405</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.932352341656671</v>
@@ -12201,7 +12201,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.395037211192989</v>
+        <v>1.401242803764831</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.082846792279451</v>
@@ -12290,7 +12290,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.380590424816559</v>
+        <v>1.376766623714391</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.100498198189145</v>
@@ -12379,7 +12379,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.361488428455473</v>
+        <v>1.366481797316156</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.200151495652437</v>
@@ -12665,7 +12665,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.581188845323183</v>
+        <v>1.566490584040908</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.282183811486696</v>
@@ -12754,7 +12754,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.587236968297709</v>
+        <v>1.569390675493166</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.229734644926719</v>
@@ -12843,7 +12843,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.574759046787917</v>
+        <v>1.55638451761162</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.269698485668678</v>
@@ -12932,7 +12932,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.566207221700622</v>
+        <v>1.548349061913729</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.241043951311636</v>
@@ -13021,7 +13021,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.554786889722458</v>
+        <v>1.529262336088835</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.143447248896491</v>
@@ -13110,7 +13110,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.578322901242318</v>
+        <v>1.548035935819388</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.073728319838934</v>
@@ -13199,7 +13199,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.607021709064437</v>
+        <v>1.563778203282553</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.848506445301609</v>
@@ -13288,7 +13288,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.594222398185021</v>
+        <v>1.55820422251498</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.929819687306765</v>
@@ -13377,7 +13377,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.58765149059353</v>
+        <v>1.554612412771851</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.722211089777983</v>
@@ -13466,7 +13466,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.597402897710048</v>
+        <v>1.562006965684985</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.006304395488188</v>
@@ -13555,7 +13555,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.617653182693907</v>
+        <v>1.581536598159322</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.668279567309728</v>
@@ -13644,7 +13644,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.596168345939307</v>
+        <v>1.56563405966059</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.66269339379571</v>
@@ -13733,7 +13733,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.587019736687232</v>
+        <v>1.550578651232973</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.572275619378751</v>
@@ -13822,7 +13822,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.592221327119455</v>
+        <v>1.555657456675597</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.532753882136702</v>
@@ -13911,7 +13911,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.597638150727055</v>
+        <v>1.567619029770917</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.643503879292771</v>
@@ -14000,7 +14000,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.596666057748301</v>
+        <v>1.564597189487383</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.613859871712264</v>
@@ -14089,7 +14089,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.594147139683561</v>
+        <v>1.564604289187256</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.561047478975039</v>
@@ -14178,7 +14178,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606479717232054</v>
+        <v>1.57083948396899</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.436012910605203</v>
@@ -14267,7 +14267,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.59848148916327</v>
+        <v>1.565381639022635</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.551120531340119</v>
@@ -14356,7 +14356,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.599422765366095</v>
+        <v>1.573722898122962</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.53600119804635</v>
@@ -14445,7 +14445,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.598292181948212</v>
+        <v>1.566729415000511</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.586960415344118</v>
@@ -14534,7 +14534,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.602624341636754</v>
+        <v>1.559056256337693</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.671139800890598</v>
@@ -14623,7 +14623,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.584880973058568</v>
+        <v>1.542604902849102</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.666339417443298</v>
@@ -14712,7 +14712,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.589619167574416</v>
+        <v>1.54857592159158</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.552384698845358</v>
@@ -14801,7 +14801,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.580558828056213</v>
+        <v>1.540207348952863</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.652643432007906</v>
@@ -14890,7 +14890,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.567651344743625</v>
+        <v>1.522181385935956</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.804218494801285</v>
@@ -14979,7 +14979,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.572242005080369</v>
+        <v>1.521465028773545</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.5206430153148</v>
@@ -15068,7 +15068,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.562122537413886</v>
+        <v>1.492145805849114</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.753005287522687</v>
@@ -15157,7 +15157,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.56077668566456</v>
+        <v>1.490890804401338</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.763744760781669</v>
@@ -15246,7 +15246,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.562897956696805</v>
+        <v>1.491006841276486</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.726208845953159</v>
@@ -15335,7 +15335,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.558886543155189</v>
+        <v>1.487260336827703</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.833292893918622</v>
@@ -15424,7 +15424,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.565026634521505</v>
+        <v>1.49295315474808</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.796242291223198</v>
@@ -15513,7 +15513,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.565087448182113</v>
+        <v>1.494626359531065</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.887336356710519</v>
@@ -15602,7 +15602,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.553566492291886</v>
+        <v>1.486786090553416</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.771955319871887</v>
@@ -15691,7 +15691,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.56070432992285</v>
+        <v>1.488344593784805</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.874658438342961</v>
@@ -15780,7 +15780,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.566877144388546</v>
+        <v>1.496761155460506</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.701017829382876</v>
@@ -15869,7 +15869,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.573827203034889</v>
+        <v>1.520138876449464</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.671680714411266</v>
@@ -15958,7 +15958,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.581542324469575</v>
+        <v>1.522701572352478</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.815158358946885</v>
@@ -16047,7 +16047,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.583379445777116</v>
+        <v>1.522342104901781</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.52129518054609</v>
@@ -16136,7 +16136,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.59138835468605</v>
+        <v>1.526050978124537</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.592886059489707</v>
@@ -16225,7 +16225,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.58285303639194</v>
+        <v>1.524841609800852</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.784003150033562</v>
@@ -16314,7 +16314,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.589525748328188</v>
+        <v>1.535639919607672</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.455690961574987</v>
@@ -16600,7 +16600,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.722085264505327</v>
+        <v>1.693678751840569</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.2333019314199</v>
@@ -16689,7 +16689,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.736190455484794</v>
+        <v>1.704368824415614</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.207976394693292</v>
@@ -16778,7 +16778,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.692895317428638</v>
+        <v>1.67052588401264</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.15151884907446</v>
@@ -16867,7 +16867,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.677182699890266</v>
+        <v>1.654994884399818</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.165034817676057</v>
@@ -16956,7 +16956,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.679720296508375</v>
+        <v>1.659064754750813</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.774376322050275</v>
@@ -17045,7 +17045,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.675906890659079</v>
+        <v>1.657858939801679</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.123534946011048</v>
@@ -17134,7 +17134,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.669026773108367</v>
+        <v>1.650033380893257</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.920309768658748</v>
@@ -17223,7 +17223,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.670722340663549</v>
+        <v>1.650380691768304</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.938537371424712</v>
@@ -17312,7 +17312,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.662537546880977</v>
+        <v>1.643928575808635</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.821954471949854</v>
@@ -17401,7 +17401,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.662768700564881</v>
+        <v>1.646560646505967</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.781799424574648</v>
@@ -17490,7 +17490,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.67638105642467</v>
+        <v>1.648615053837841</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.438254281054284</v>
@@ -17579,7 +17579,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.66843749420127</v>
+        <v>1.649985013763638</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.480104186436922</v>
@@ -17668,7 +17668,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.668878640423225</v>
+        <v>1.643582285230462</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.565266258241122</v>
@@ -17757,7 +17757,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.673650810742267</v>
+        <v>1.645122103533994</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.62034691908786</v>
@@ -17846,7 +17846,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.665720089649606</v>
+        <v>1.642747528978053</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.474129879135913</v>
@@ -17935,7 +17935,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.667215497673436</v>
+        <v>1.645880701860918</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.481403916417466</v>
@@ -18024,7 +18024,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.658740992765781</v>
+        <v>1.633006206205229</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.527103522591568</v>
@@ -18113,7 +18113,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.680722008815441</v>
+        <v>1.647906215357447</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.495654044992986</v>
@@ -18202,7 +18202,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.69084247019447</v>
+        <v>1.659448078257424</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.321838277959742</v>
@@ -18291,7 +18291,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.686677388853417</v>
+        <v>1.654475573236116</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.452395138255072</v>
@@ -18380,7 +18380,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.70314874979863</v>
+        <v>1.662824193506398</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.479121262837325</v>
@@ -18469,7 +18469,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.709643761753552</v>
+        <v>1.648420631450362</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.507800141632329</v>
@@ -18558,7 +18558,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.697726001866253</v>
+        <v>1.638057695391776</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.481956713456679</v>
@@ -18647,7 +18647,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.695195882047307</v>
+        <v>1.636105041530217</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.410716332611709</v>
@@ -18736,7 +18736,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.694054184870903</v>
+        <v>1.632755681869192</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.523925082848674</v>
@@ -18825,7 +18825,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.694281845482684</v>
+        <v>1.63616076992278</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.257707235657694</v>
@@ -18914,7 +18914,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.690967373805836</v>
+        <v>1.625978741305072</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.095541668210281</v>
@@ -19003,7 +19003,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.676630581969803</v>
+        <v>1.604665910933337</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.285657994589702</v>
@@ -19092,7 +19092,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.664044066820788</v>
+        <v>1.58985214754186</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.112190441171251</v>
@@ -19181,7 +19181,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.673688178667359</v>
+        <v>1.595688512535744</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.038215435220852</v>
@@ -19270,7 +19270,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.669885888591368</v>
+        <v>1.593540769505912</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.381980983383046</v>
@@ -19359,7 +19359,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.681020278034395</v>
+        <v>1.603738707008426</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.414764412123984</v>
@@ -19448,7 +19448,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.684517778440031</v>
+        <v>1.609247360414602</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.188926555378443</v>
@@ -19537,7 +19537,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.680373638490473</v>
+        <v>1.605494628568668</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.25150978527181</v>
@@ -19626,7 +19626,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.679158415415987</v>
+        <v>1.602189963651781</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.303849607846503</v>
@@ -19715,7 +19715,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.677393020075647</v>
+        <v>1.59961028858718</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.248139836139644</v>
@@ -19804,7 +19804,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.671245597883706</v>
+        <v>1.614366511455094</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.048632781735757</v>
@@ -19893,7 +19893,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.676508704511643</v>
+        <v>1.619204987164544</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.239045855935934</v>
@@ -19982,7 +19982,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.677957712342794</v>
+        <v>1.62344752009284</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.348805956428825</v>
@@ -20071,7 +20071,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.673361038938411</v>
+        <v>1.618900948466199</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.413067018576724</v>
@@ -20160,7 +20160,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.684702528527781</v>
+        <v>1.626960138109027</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.066193174108054</v>
@@ -20249,7 +20249,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.686052716993283</v>
+        <v>1.633693135148278</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.506839500895937</v>
@@ -20535,7 +20535,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.633209686828389</v>
+        <v>1.64753993238119</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.547550765154251</v>
@@ -20624,7 +20624,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.64926106342907</v>
+        <v>1.659043873866487</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.526526661824018</v>
@@ -20713,7 +20713,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.596649661935423</v>
+        <v>1.607624091359554</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.672874496667603</v>
@@ -20802,7 +20802,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.575078623866172</v>
+        <v>1.587573735962158</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.640881457806298</v>
@@ -20891,7 +20891,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.593096913027738</v>
+        <v>1.600302612238403</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.202691830675404</v>
@@ -20980,7 +20980,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.613614463423488</v>
+        <v>1.619366307248665</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.882074557149645</v>
@@ -21069,7 +21069,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.612119517114425</v>
+        <v>1.614888069306165</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.921680261805365</v>
@@ -21158,7 +21158,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.606773668047722</v>
+        <v>1.616134847457172</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.032543767694717</v>
@@ -21247,7 +21247,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.601565673511452</v>
+        <v>1.614506422267515</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.815741267164531</v>
@@ -21336,7 +21336,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.59939441922268</v>
+        <v>1.608375046990489</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.046768850207473</v>
@@ -21425,7 +21425,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.599428057703005</v>
+        <v>1.605599126020971</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.981866062499622</v>
@@ -21514,7 +21514,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.589646823163715</v>
+        <v>1.597696990010885</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.978802609442455</v>
@@ -21603,7 +21603,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.599491579470363</v>
+        <v>1.607378958322726</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.666327099148218</v>
@@ -21692,7 +21692,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.597739715208216</v>
+        <v>1.602729032486726</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.068772898172426</v>
@@ -21781,7 +21781,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.591115764661458</v>
+        <v>1.596764214550411</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.166375998925905</v>
@@ -21870,7 +21870,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.58901883695004</v>
+        <v>1.589999249821581</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.907609742542187</v>
@@ -21959,7 +21959,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.596469538796728</v>
+        <v>1.595034249505397</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.577091326339247</v>
@@ -22048,7 +22048,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.610607954674101</v>
+        <v>1.601261753866574</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.63137567276613</v>
@@ -22137,7 +22137,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.606639426912175</v>
+        <v>1.598435750008978</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.104894301569272</v>
@@ -22226,7 +22226,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.603021294009064</v>
+        <v>1.596057632384866</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.819236288164193</v>
@@ -22315,7 +22315,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.60490250405264</v>
+        <v>1.597455509831789</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.955555338567719</v>
@@ -22404,7 +22404,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.59870282504574</v>
+        <v>1.593473101671721</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.915036949050941</v>
@@ -22493,7 +22493,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.582768717843608</v>
+        <v>1.575031837441476</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.881496118855873</v>
@@ -22582,7 +22582,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.593324957251178</v>
+        <v>1.583052668940376</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.945412250489609</v>
@@ -22671,7 +22671,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.608068682249715</v>
+        <v>1.59976688394211</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.722214867496446</v>
@@ -22760,7 +22760,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.61809052038887</v>
+        <v>1.604308244907128</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.029718765307616</v>
@@ -22849,7 +22849,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.62598234100858</v>
+        <v>1.608863283078475</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.855630600137773</v>
@@ -22938,7 +22938,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.607257008576805</v>
+        <v>1.586981007374503</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.914899631594208</v>
@@ -23027,7 +23027,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.609707459755684</v>
+        <v>1.588503553677847</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.633672366401814</v>
@@ -23116,7 +23116,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.611371613375747</v>
+        <v>1.58676804518497</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.86764306234355</v>
@@ -23205,7 +23205,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.594976020274106</v>
+        <v>1.575322895765594</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.870555574172636</v>
@@ -23294,7 +23294,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.597492044840942</v>
+        <v>1.576304279167577</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.864829617810921</v>
@@ -23383,7 +23383,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.601460147724415</v>
+        <v>1.584538670039767</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.886045006015051</v>
@@ -23472,7 +23472,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.604934467462277</v>
+        <v>1.583436711641528</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.918156525166224</v>
@@ -23561,7 +23561,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.616692959084668</v>
+        <v>1.589847174560187</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.102395742598811</v>
@@ -23650,7 +23650,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.613898484528801</v>
+        <v>1.588389150877735</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.433578004262629</v>
@@ -23739,7 +23739,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.629588737883481</v>
+        <v>1.602425700537801</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.105248508258532</v>
@@ -23828,7 +23828,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.651352150664608</v>
+        <v>1.621635914193779</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.10054460832153</v>
@@ -23917,7 +23917,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.646984100639328</v>
+        <v>1.618088297000578</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.665493638164481</v>
@@ -24006,7 +24006,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.635805889053075</v>
+        <v>1.608973789610948</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.833445073684182</v>
@@ -24095,7 +24095,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.619772404495123</v>
+        <v>1.592174095251542</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.904056664691335</v>
@@ -24184,7 +24184,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.622532240221608</v>
+        <v>1.595365166352669</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.037198878167856</v>
@@ -24470,7 +24470,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.477509137443748</v>
+        <v>1.490837485505893</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.091896858119777</v>
@@ -24559,7 +24559,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.539005524824173</v>
+        <v>1.547757457723124</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.91888009298661</v>
@@ -24648,7 +24648,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.534224100583057</v>
+        <v>1.541750460879588</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.05633261667803</v>
@@ -24737,7 +24737,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.515133078677649</v>
+        <v>1.524363266084689</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.070637650678426</v>
@@ -24826,7 +24826,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.513998239680815</v>
+        <v>1.517468640519919</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.987229724085736</v>
@@ -24915,7 +24915,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.522224877422785</v>
+        <v>1.521562395265716</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.205413820356606</v>
@@ -25004,7 +25004,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.503515535208032</v>
+        <v>1.503296113255819</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.287286057356589</v>
@@ -25093,7 +25093,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.500931485107414</v>
+        <v>1.505021691476651</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.203431456895664</v>
@@ -25182,7 +25182,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.496210665440403</v>
+        <v>1.49864079606932</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.095897542499009</v>
@@ -25271,7 +25271,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.518968318768099</v>
+        <v>1.520150734007302</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.135810694670596</v>
@@ -25360,7 +25360,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.523727065929418</v>
+        <v>1.518273056994187</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.140496789342153</v>
@@ -25449,7 +25449,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.515611300260012</v>
+        <v>1.510349009292295</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.192354823755961</v>
@@ -25538,7 +25538,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.517011099444004</v>
+        <v>1.512691396054215</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.217123832547824</v>
@@ -25627,7 +25627,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.518404258616048</v>
+        <v>1.51219334709552</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.290339616579269</v>
@@ -25716,7 +25716,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.551371099346852</v>
+        <v>1.542657591233701</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.211715458181892</v>
@@ -25805,7 +25805,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.566059146518241</v>
+        <v>1.555095849381957</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.376198344255856</v>
@@ -25894,7 +25894,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.56679540451468</v>
+        <v>1.552359591712137</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.437607859675959</v>
@@ -25983,7 +25983,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.589327303874018</v>
+        <v>1.563831947515394</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.009126236907502</v>
@@ -26072,7 +26072,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.557258822171116</v>
+        <v>1.548281035404733</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.271409814580059</v>
@@ -26161,7 +26161,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.519237946686886</v>
+        <v>1.516952096814464</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.161107979100485</v>
@@ -26250,7 +26250,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.510981118636447</v>
+        <v>1.511778380382699</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.208270386758492</v>
@@ -26339,7 +26339,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.484772729937225</v>
+        <v>1.486049112110947</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.209893192678249</v>
@@ -26428,7 +26428,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.451339994203434</v>
+        <v>1.449474271047138</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.213335062932742</v>
@@ -26517,7 +26517,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.453734991034571</v>
+        <v>1.45719651826581</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.138776842437099</v>
@@ -26606,7 +26606,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.418296754989414</v>
+        <v>1.420771489937856</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.131076033646365</v>
@@ -26695,7 +26695,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.420138143185338</v>
+        <v>1.428901689066046</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.399463785313486</v>
@@ -26784,7 +26784,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.422405779435225</v>
+        <v>1.429874744226096</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.170893836905442</v>
@@ -26873,7 +26873,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.410853403674558</v>
+        <v>1.419769634991997</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.186874452639593</v>
@@ -26962,7 +26962,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.412949770687073</v>
+        <v>1.422651773926348</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.131680400889422</v>
@@ -27051,7 +27051,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.397319533524499</v>
+        <v>1.404430169466708</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.047979001855713</v>
@@ -27140,7 +27140,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.380427223500843</v>
+        <v>1.390689829015594</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.170047077529269</v>
@@ -27229,7 +27229,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.383580997807455</v>
+        <v>1.395076225341871</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.149100358480994</v>
@@ -27318,7 +27318,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.385400476868632</v>
+        <v>1.397020822295976</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.284268368754458</v>
@@ -27407,7 +27407,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.344215495419627</v>
+        <v>1.356586829776649</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.197407175383373</v>
@@ -27496,7 +27496,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.372169180450967</v>
+        <v>1.383064592625082</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.128400305114492</v>
@@ -27585,7 +27585,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.377359905216262</v>
+        <v>1.386038675321045</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.14161986841895</v>
@@ -27674,7 +27674,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.397333303009259</v>
+        <v>1.41122476354401</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.108564383258459</v>
@@ -27763,7 +27763,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.406621787559962</v>
+        <v>1.4177027149462</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.127744145358401</v>
@@ -27852,7 +27852,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.405435643241586</v>
+        <v>1.411314499340715</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.953458422178385</v>
@@ -27941,7 +27941,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.421840710331765</v>
+        <v>1.427424088179183</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.111472860789359</v>
@@ -28030,7 +28030,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.402426616451788</v>
+        <v>1.395760845778899</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.074899958130647</v>
@@ -28119,7 +28119,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.383439997772316</v>
+        <v>1.389470087273498</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.235436688764179</v>
